--- a/CSharp/CSharp/bin/Debug/netcoreapp2.2/xslxTemplate/报警明细.xlsx
+++ b/CSharp/CSharp/bin/Debug/netcoreapp2.2/xslxTemplate/报警明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="超速报警明细" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,18 @@
     <sheet name="驾驶员违规报警明细" sheetId="4" r:id="rId4"/>
     <sheet name="2-5点违规运行明细" sheetId="5" r:id="rId5"/>
     <sheet name="紧急报警明细" sheetId="6" r:id="rId6"/>
+    <sheet name="车辆不在线明细" sheetId="7" r:id="rId7"/>
+    <sheet name="串线经营明细" sheetId="8" r:id="rId8"/>
+    <sheet name="定时发送语音信息明细" sheetId="9" r:id="rId9"/>
+    <sheet name="非法停车异常报警明细" sheetId="10" r:id="rId10"/>
+    <sheet name="三级路面禁行明细" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
   <si>
     <t>超速报警明细</t>
   </si>
@@ -121,6 +126,78 @@
   </si>
   <si>
     <t>紧急报警情况登记</t>
+  </si>
+  <si>
+    <t>车辆不在线明细</t>
+  </si>
+  <si>
+    <t>离线时长</t>
+  </si>
+  <si>
+    <t>通讯SIM卡号</t>
+  </si>
+  <si>
+    <t>真实SIM卡号</t>
+  </si>
+  <si>
+    <t>车辆运营类型</t>
+  </si>
+  <si>
+    <t>卫星时间</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>车辆状态</t>
+  </si>
+  <si>
+    <t>最后上传时间</t>
+  </si>
+  <si>
+    <t>离线时长阈值(秒)</t>
+  </si>
+  <si>
+    <t>排查人</t>
+  </si>
+  <si>
+    <t>处理结果</t>
+  </si>
+  <si>
+    <t>串线经营明细</t>
+  </si>
+  <si>
+    <t>定时发送语音信息明细</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>所属公司</t>
+  </si>
+  <si>
+    <t>消息内容</t>
+  </si>
+  <si>
+    <t>发送时间</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>发送数量</t>
+  </si>
+  <si>
+    <t>非法停车异常报警明细</t>
+  </si>
+  <si>
+    <t>三级路面禁行明细</t>
+  </si>
+  <si>
+    <t>最高速度</t>
   </si>
 </sst>
 </file>
@@ -128,17 +205,51 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,16 +262,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,7 +302,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,11 +314,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +341,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -207,67 +371,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,7 +379,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,192 +392,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -493,6 +597,67 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,35 +690,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,7 +717,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -597,6 +738,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,15 +775,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,33 +807,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,186 +831,199 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,13 +1379,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -1258,65 +1403,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" ht="23.25" customHeight="1" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="21" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1329,13 +1479,181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0" showOutlineSymbols="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="68.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.1" customHeight="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="59.25" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1356,64 +1674,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:14">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1432,8 +1750,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1455,76 +1773,76 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:17">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1543,8 +1861,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1563,68 +1881,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1642,8 +1960,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1661,60 +1979,60 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1732,8 +2050,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1751,8 +2069,199 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:13">
+      <c r="A1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0" showOutlineSymbols="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60" style="2" customWidth="1"/>
+    <col min="3" max="7" width="18.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="43.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="7" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.1" customHeight="1" spans="1:16">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" ht="54" spans="1:16">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="58.875" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.95" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1763,56 +2272,117 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="24.95" customHeight="1" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="110.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.1" customHeight="1" spans="1:8">
+      <c r="A1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" ht="27" spans="1:8">
+      <c r="A2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
 </file>
--- a/CSharp/CSharp/bin/Debug/netcoreapp2.2/xslxTemplate/报警明细.xlsx
+++ b/CSharp/CSharp/bin/Debug/netcoreapp2.2/xslxTemplate/报警明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="875"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="超速报警明细" sheetId="1" r:id="rId1"/>
@@ -205,12 +205,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +221,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -242,14 +242,15 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,53 +263,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,15 +288,22 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,21 +318,38 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,22 +358,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,192 +385,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -714,10 +707,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -734,47 +742,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,9 +763,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,7 +800,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,10 +821,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,133 +833,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1379,13 +1381,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -1462,11 +1464,6 @@
       </c>
       <c r="N2" s="21" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1494,11 +1491,11 @@
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.4333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.8083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.4916666666667" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.75" style="3" customWidth="1"/>
@@ -1508,7 +1505,7 @@
     <col min="13" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.1" customHeight="1" spans="1:12">
+    <row r="1" ht="35" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -1585,10 +1582,10 @@
   <cols>
     <col min="1" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="59.25" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="10" max="16384" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:11">
+    <row r="1" ht="25" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1603,7 +1600,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" ht="24.95" customHeight="1" spans="1:11">
+    <row r="2" ht="25" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2149,12 +2146,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.4333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="60" style="2" customWidth="1"/>
-    <col min="3" max="7" width="18.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="3" max="7" width="18.8083333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.05833333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="45.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.4916666666667" style="2" customWidth="1"/>
     <col min="11" max="11" width="43.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="21.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="18.375" style="2" customWidth="1"/>
@@ -2163,7 +2160,7 @@
     <col min="17" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.1" customHeight="1" spans="1:16">
+    <row r="1" ht="35" customHeight="1" spans="1:16">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -2256,10 +2253,10 @@
   <cols>
     <col min="1" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="58.875" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="10" max="16384" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:10">
+    <row r="1" ht="25" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2273,7 +2270,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="24.95" customHeight="1" spans="1:10">
+    <row r="2" ht="25" customHeight="1" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
